--- a/All Documents/Task List.xlsx
+++ b/All Documents/Task List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\SQA-Internship-Progress-in-HPL\All Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB1E57B-5203-49AF-B688-735DD3306665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42310B5B-69C2-4C17-B895-F25D0CAC88CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13110" yWindow="10215" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Serial Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Task Name</t>
   </si>
@@ -42,26 +39,101 @@
     <t>Assigned Date</t>
   </si>
   <si>
-    <t>Completed By</t>
-  </si>
-  <si>
-    <t>Completed Date</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t>Md. Najim Uddin</t>
+  </si>
+  <si>
+    <t>1. Explore and understand the website structure and key features of HCL HRMS
+2. Identify and report issues as part of testing.
+3. Review SQA course materials for better understanding.
+4. Learn to write test cases and testing documentation.
+5. Discuss the domain knowledge of the HCL HRMS.</t>
+  </si>
+  <si>
+    <t>Healthcare Chemicals HRMS Explore</t>
+  </si>
+  <si>
+    <t>Task No.</t>
+  </si>
+  <si>
+    <t>Bug Tracking 
+and Documentation Practice</t>
+  </si>
+  <si>
+    <t>1. Create an Excel sheet listing issues found in the HPL HRM System.
+2. Study the remaining topics of the SQA course.
+3. Learn the basics of bug tracking.
+4. Practice writing bug documentation.
+5. Explore Jira to understand and apply bug tracking techniques.</t>
+  </si>
+  <si>
+    <t>JavaScript 
+Learning and 
+Practice</t>
+  </si>
+  <si>
+    <t>Project Analysis and 
+SQA Preparation</t>
+  </si>
+  <si>
+    <t>1. Requirement analysis for the Task Management System (TMS).
+2. Attended meetings with Najim Sir and Kamrun Nahar.
+3. Prepared Requirement Analysis Documents (V1, V2).
+4. Drafted meeting minutes.
+5. Prepared Project Charter for TMS.</t>
+  </si>
+  <si>
+    <t>Task Management System (TMS)
+ Requirement Analysis and SQA Preparation</t>
+  </si>
+  <si>
+    <t>Cypress Automation 
+Testing Practice</t>
+  </si>
+  <si>
+    <t>1. Made a list of automation tools used for testing and installed Cypress.
+2. Practiced writing automation scripts for the Rock-Paper-Scissors game.
+3. Wrote Cypress test cases independently using describe(), it(), beforeEach(), cy.visit(), cy.get(), cy.click(), and cy.should().
+4. Practiced automation testing and writing test reports in Cypress.
+5. Learned Cypress basics, environment setup, writing test cases, using CSS &amp; XPATH locators, assertions, and interacting with UI elements.</t>
+  </si>
+  <si>
+    <t>20-07-
+2025</t>
+  </si>
+  <si>
+    <t>JavaScript videos and practice - 
+Functions, Objects, Loops, Arrays</t>
+  </si>
+  <si>
+    <t>1. Project requirement analysis meeting with Najim Sir and Kamurnnahar.
+2. Prepare meeting minutes.
+3. Review and present previous bug reports to Najim Sir.
+4. SQA Engineer written test questionnaire.</t>
+  </si>
+  <si>
+    <t>1. Attended meetings with Najim Sir, Kamrun Nahar, and DGM Sir regarding TMS updates.
+2. Prepared Requirement Analysis Documents (V1,V2) and drafted meeting minutes.
+3. Assisted in preparing zone KPI data and compiled previous data for DGM updates.
+4. Worked on the latest TMS updates.
+5. Attended SMA training session with Faruk Vai.
+6. Prepared test cases for the TMS.</t>
+  </si>
+  <si>
+    <t>Bug Reporting + 
+SMA Training</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +141,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,13 +196,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,104 +538,1186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12">
+        <v>45840</v>
+      </c>
+      <c r="F2" s="12">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="12">
+        <v>45841</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12">
+        <v>45841</v>
+      </c>
+      <c r="F3" s="12">
+        <v>45841</v>
+      </c>
+      <c r="G3" s="12">
+        <v>45841</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45845</v>
+      </c>
+      <c r="F4" s="12">
+        <v>45845</v>
+      </c>
+      <c r="G4" s="12">
+        <v>45864</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12">
+        <v>45846</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45846</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12">
+        <v>45847</v>
+      </c>
+      <c r="F6" s="12">
+        <v>45847</v>
+      </c>
+      <c r="G6" s="12">
+        <v>45848</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12">
+        <v>45848</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45848</v>
+      </c>
+      <c r="G7" s="15">
+        <v>45852</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45849</v>
+      </c>
+      <c r="F8" s="12">
+        <v>45849</v>
+      </c>
+      <c r="G8" s="15">
+        <v>45865</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>